--- a/data/trans_dic/IP34-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP34-Habitat-trans_dic.xlsx
@@ -620,7 +620,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,47 +683,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0; 9,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 7,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 7,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 3,98</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,54 +903,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,59</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,58</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,57</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,68</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,69</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,8</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1013,54 +1013,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0; 0,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1123,47 +1123,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,4</t>
         </is>
       </c>
     </row>
